--- a/biology/Zoologie/Grallaire_de_Blake/Grallaire_de_Blake.xlsx
+++ b/biology/Zoologie/Grallaire_de_Blake/Grallaire_de_Blake.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grallaria blakei
-La Grallaire de Blake (Grallaria blakei) est une espèce monotypique[1] d'oiseaux de la famille des Grallariidae endémique du Pérou.
+La Grallaire de Blake (Grallaria blakei) est une espèce monotypique d'oiseaux de la famille des Grallariidae endémique du Pérou.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adulte mesure environ 15 cm pour un poids de 38 g[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adulte mesure environ 15 cm pour un poids de 38 g. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans les Andes au nord et au centre du Pérou. Elle vit dans la forêt de montagne et dans les zones boisées[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans les Andes au nord et au centre du Pérou. Elle vit dans la forêt de montagne et dans les zones boisées.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, blakei, ainsi que son nom vernaculaire (« de Blake ») lui ont été donnés en l'honneur d'Emmet Reid Blake (d) (1908-1997), zoologiste américain du musée Field, en remerciement de son importante contribution en systématique, taxonomie et biogéographie des oiseaux néotropicaux[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, blakei, ainsi que son nom vernaculaire (« de Blake ») lui ont été donnés en l'honneur d'Emmet Reid Blake (d) (1908-1997), zoologiste américain du musée Field, en remerciement de son importante contribution en systématique, taxonomie et biogéographie des oiseaux néotropicaux.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Gary R. Graves, « A cryptic new species of antpitta (Formicariidae: Grallaria) from the Peruvian Andes », The Wilson Bulletin, vol. 99, no 3,‎ septembre 1987, p. 313-321 (ISSN 0043-5643 et 2162-5204, lire en ligne)</t>
         </is>
